--- a/data/trans_dic/P19C07-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03547208011316624</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01855077109700732</v>
+        <v>0.01855077109700733</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01682905322602226</v>
+        <v>0.01733249466201997</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01777808699609874</v>
+        <v>0.01736452148531472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01981284881194202</v>
+        <v>0.02019529376285207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005320002172105648</v>
+        <v>0.004891672654579486</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01548051756426132</v>
+        <v>0.01576148429481435</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01299580342862134</v>
+        <v>0.01243430107543608</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02803953994666038</v>
+        <v>0.02858227315094311</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0129292195241325</v>
+        <v>0.01268049500671396</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01913244271198396</v>
+        <v>0.0191378104791342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01782251910055091</v>
+        <v>0.01735876204746121</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02730907979420584</v>
+        <v>0.02653017959892395</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0120701308817328</v>
+        <v>0.01183378351442315</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05053279512370025</v>
+        <v>0.052427122178238</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04204715433439498</v>
+        <v>0.04127955965317431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04420190770759824</v>
+        <v>0.0465700407858126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03505576320540057</v>
+        <v>0.03274902909403034</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03887106526562405</v>
+        <v>0.03987036093113636</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0320631878648868</v>
+        <v>0.0336408522435484</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05422201016258005</v>
+        <v>0.0541078953072417</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0346705366214557</v>
+        <v>0.03325854339989174</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03877845383228355</v>
+        <v>0.03834617499302298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03421271948998705</v>
+        <v>0.03415465432934341</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04659590000013723</v>
+        <v>0.04494177626031299</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02755327311253995</v>
+        <v>0.02787560353995736</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02379404255342765</v>
+        <v>0.02314652155829032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02225754104145073</v>
+        <v>0.0215870262739453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01143153278204191</v>
+        <v>0.01245272032904801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01377182260011104</v>
+        <v>0.01336923148004214</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02387873898383677</v>
+        <v>0.0234308161762597</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02565677964985626</v>
+        <v>0.02564795766520361</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01858467241361229</v>
+        <v>0.01887253536345438</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02481558265327771</v>
+        <v>0.02327533234731584</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02649081802816569</v>
+        <v>0.02625105302566559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02629500818623082</v>
+        <v>0.02700806368618161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01875317340788812</v>
+        <v>0.01810647414124817</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02193192180753906</v>
+        <v>0.02174912704899391</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05053750596817675</v>
+        <v>0.04867126282512831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04800412120528555</v>
+        <v>0.04840375038252979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03264615126521388</v>
+        <v>0.03431795987376469</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03816175903549947</v>
+        <v>0.03942203008018227</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05222894555177401</v>
+        <v>0.04781923465393327</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05226021823383886</v>
+        <v>0.05348205825192024</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03997644610996824</v>
+        <v>0.04206644012991576</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04595003359098965</v>
+        <v>0.04610196380008461</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04514398000994185</v>
+        <v>0.04426518307413697</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04658694522863564</v>
+        <v>0.04551451977544931</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03443873598837614</v>
+        <v>0.03401547900715231</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03797603781164396</v>
+        <v>0.03670097408312981</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03627590435555516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04128624585120736</v>
+        <v>0.04128624585120737</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03950072579247006</v>
@@ -969,7 +969,7 @@
         <v>0.03630540383716501</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04591245193135343</v>
+        <v>0.04591245193135344</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02211201826677259</v>
+        <v>0.02266394559368811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02214274332091926</v>
+        <v>0.02262963322691012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02414966702057539</v>
+        <v>0.02371164313434792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02880368180964909</v>
+        <v>0.02858268421094205</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02853255639782232</v>
+        <v>0.02690363951527572</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03169677419492844</v>
+        <v>0.03207546818083171</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02339153937390877</v>
+        <v>0.02339058187574539</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0381580720250288</v>
+        <v>0.03863469304444303</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0280415415767599</v>
+        <v>0.02749488614819733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03052683276336675</v>
+        <v>0.03084149312487998</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02754651349571531</v>
+        <v>0.02671872762924548</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03601878726971351</v>
+        <v>0.03682980768657849</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04656116931771146</v>
+        <v>0.04885281313845774</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04888349811013695</v>
+        <v>0.04928300193540983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05196731570477715</v>
+        <v>0.05229175754132671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05918202678049886</v>
+        <v>0.0581281385079013</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05458029504558885</v>
+        <v>0.05484500082005512</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06151378316219105</v>
+        <v>0.06098455501594854</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05294313322217654</v>
+        <v>0.05378146282314229</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06334151632775546</v>
+        <v>0.06523410781521416</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04674579242116971</v>
+        <v>0.04612923489979128</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05007247031108635</v>
+        <v>0.04879506646446199</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04867745001454541</v>
+        <v>0.0482308974492897</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05886964002688069</v>
+        <v>0.0564933427140756</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02514134511567089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05025701598605064</v>
+        <v>0.05025701598605065</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0332552721242045</v>
@@ -1105,7 +1105,7 @@
         <v>0.03396902350799601</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05375055071344342</v>
+        <v>0.05375055071344343</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02449335129524512</v>
+        <v>0.02514398975449076</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02624755364907591</v>
+        <v>0.02592057442694213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0129828588579023</v>
+        <v>0.01186489096117996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03577601196467386</v>
+        <v>0.03480348888197324</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01665486246943727</v>
+        <v>0.01671340578048595</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03143943350375326</v>
+        <v>0.02878223964869055</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02582389957561476</v>
+        <v>0.02477631251502379</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04180869020595737</v>
+        <v>0.04148206360136462</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02577697306840453</v>
+        <v>0.02502720218007939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03340733410162311</v>
+        <v>0.03365183174973677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02339479049642448</v>
+        <v>0.02219815504057798</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04263113353482505</v>
+        <v>0.04276000156818165</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06791514162489524</v>
+        <v>0.06824130111836578</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0679896731479431</v>
+        <v>0.06786118715456044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04478930947139099</v>
+        <v>0.04674295118137228</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07019290973050246</v>
+        <v>0.07193537534584141</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05873039597431215</v>
+        <v>0.05971658799795297</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07687597670128293</v>
+        <v>0.07455339046512539</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06718944348554001</v>
+        <v>0.06773674427943899</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07864562198718328</v>
+        <v>0.07419962621561074</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05616332522859124</v>
+        <v>0.05443362010295638</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06634895168758413</v>
+        <v>0.06326603627215695</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04868945877907931</v>
+        <v>0.04913639447916177</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06771974630946602</v>
+        <v>0.06642555789506836</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02864960580172878</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03518572730125007</v>
+        <v>0.03518572730125006</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0336404256106712</v>
@@ -1241,7 +1241,7 @@
         <v>0.03251504603657776</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03883328611724698</v>
+        <v>0.038833286117247</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02768271542685736</v>
+        <v>0.02825562933877545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02598241482847705</v>
+        <v>0.02675323847212219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02279085431604273</v>
+        <v>0.02257701028730526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0278289732259003</v>
+        <v>0.02812613735060823</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02681837521503462</v>
+        <v>0.02704248048211647</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02990556231932651</v>
+        <v>0.02907711874063688</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02962061149174898</v>
+        <v>0.02983375311064445</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03639065877154584</v>
+        <v>0.03600551743746849</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02944109535146696</v>
+        <v>0.02930183511382595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03001197745414539</v>
+        <v>0.03047155725139021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02843480850180988</v>
+        <v>0.02802139304914811</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03414227535379469</v>
+        <v>0.03411564017332021</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04231620712578195</v>
+        <v>0.04276372168899684</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04087664658298878</v>
+        <v>0.04087940424240716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03511834134320376</v>
+        <v>0.03571575922672571</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04330560460738007</v>
+        <v>0.04313114847420374</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04073375367006065</v>
+        <v>0.0409491662478488</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04398617778000725</v>
+        <v>0.04329998187696995</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04364416135037427</v>
+        <v>0.04354239722438199</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04985333949990069</v>
+        <v>0.049548986678331</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03944130580489669</v>
+        <v>0.03920495940662067</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03982778633541939</v>
+        <v>0.04008366178231999</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03772711210427215</v>
+        <v>0.03759682889907757</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04446812057905486</v>
+        <v>0.04495156414829986</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6663</v>
+        <v>6862</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14674</v>
+        <v>14333</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15540</v>
+        <v>15840</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2406</v>
+        <v>2212</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11310</v>
+        <v>11515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12313</v>
+        <v>11781</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25872</v>
+        <v>26373</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7618</v>
+        <v>7471</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21553</v>
+        <v>21559</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31597</v>
+        <v>30775</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>46619</v>
+        <v>45289</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12571</v>
+        <v>12325</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20007</v>
+        <v>20757</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34705</v>
+        <v>34072</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34670</v>
+        <v>36528</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15855</v>
+        <v>14812</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28399</v>
+        <v>29130</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30379</v>
+        <v>31874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50031</v>
+        <v>49926</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20428</v>
+        <v>19596</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43685</v>
+        <v>43198</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60654</v>
+        <v>60551</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>79543</v>
+        <v>76719</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28696</v>
+        <v>29032</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19014</v>
+        <v>18497</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18714</v>
+        <v>18150</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8166</v>
+        <v>8895</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12686</v>
+        <v>12315</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20296</v>
+        <v>19915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24702</v>
+        <v>24693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15661</v>
+        <v>15904</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26978</v>
+        <v>25303</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43685</v>
+        <v>43290</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>47424</v>
+        <v>48710</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>29199</v>
+        <v>28192</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44046</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40386</v>
+        <v>38894</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40361</v>
+        <v>40697</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23320</v>
+        <v>24514</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35153</v>
+        <v>36314</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44392</v>
+        <v>40644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50314</v>
+        <v>51491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33687</v>
+        <v>35449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49954</v>
+        <v>50119</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74446</v>
+        <v>72996</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>84021</v>
+        <v>82087</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>53621</v>
+        <v>52962</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>76267</v>
+        <v>73706</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19714</v>
+        <v>20206</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17266</v>
+        <v>17646</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17293</v>
+        <v>16980</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29521</v>
+        <v>29295</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23671</v>
+        <v>22320</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25551</v>
+        <v>25856</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>15414</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39307</v>
+        <v>39798</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>48264</v>
+        <v>47323</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>48412</v>
+        <v>48911</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37878</v>
+        <v>36740</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>74019</v>
+        <v>75686</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41511</v>
+        <v>43554</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38118</v>
+        <v>38430</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37213</v>
+        <v>37446</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60657</v>
+        <v>59577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45281</v>
+        <v>45501</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49586</v>
+        <v>49160</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34888</v>
+        <v>35440</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>65248</v>
+        <v>67198</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>80457</v>
+        <v>79396</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>79409</v>
+        <v>77383</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>66934</v>
+        <v>66320</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>120978</v>
+        <v>116095</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8327</v>
+        <v>8548</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11922</v>
+        <v>11773</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5579</v>
+        <v>5099</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33987</v>
+        <v>33063</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4640</v>
+        <v>4657</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13062</v>
+        <v>11958</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11139</v>
+        <v>10687</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36823</v>
+        <v>36535</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15945</v>
+        <v>15481</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29053</v>
+        <v>29265</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20145</v>
+        <v>19115</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>78047</v>
+        <v>78283</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23089</v>
+        <v>23199</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30881</v>
+        <v>30822</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19248</v>
+        <v>20088</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>66683</v>
+        <v>68338</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16364</v>
+        <v>16638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31939</v>
+        <v>30974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28982</v>
+        <v>29218</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69267</v>
+        <v>65351</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34742</v>
+        <v>33672</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>57701</v>
+        <v>55020</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>41927</v>
+        <v>42312</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>123978</v>
+        <v>121608</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>67173</v>
+        <v>68563</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75353</v>
+        <v>77588</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>60271</v>
+        <v>59705</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>93182</v>
+        <v>94177</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>72109</v>
+        <v>72712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>93658</v>
+        <v>91063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>84588</v>
+        <v>85197</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>130540</v>
+        <v>129158</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>150601</v>
+        <v>149889</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>181030</v>
+        <v>183802</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>156398</v>
+        <v>154124</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>236795</v>
+        <v>236610</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>102682</v>
+        <v>103768</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>118548</v>
+        <v>118556</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92871</v>
+        <v>94451</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>145003</v>
+        <v>144419</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>109525</v>
+        <v>110104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>137755</v>
+        <v>135606</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>124635</v>
+        <v>124345</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>178832</v>
+        <v>177741</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>201756</v>
+        <v>200547</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>240238</v>
+        <v>241782</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>207508</v>
+        <v>206792</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>308410</v>
+        <v>311763</v>
       </c>
     </row>
     <row r="24">
